--- a/biology/Médecine/1160_en_santé_et_médecine/1160_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1160_en_santé_et_médecine/1160_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1160_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1160_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1160 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1160_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1160_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Établissements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>« La léproserie de Saint-Ladre est mentionnée pour la première fois » à Montigny, près de Metz en Lorraine[1].
-La léproserie de Gorze, en Lorraine, est mentionnée comme « leprosis in Gorziensis villae potestate[1] ».
-Première mention de la léproserie des Grands Malades, « le plus ancien hospice de Huy », en Wallonie[2].
-La maladrerie Saint-Nicolas de Gravigny, près d'Évreux, en Normandie, fondée au début du siècle, est attestée dans une charte par laquelle Simon de Montfort lui accorde un jour de foire[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>« La léproserie de Saint-Ladre est mentionnée pour la première fois » à Montigny, près de Metz en Lorraine.
+La léproserie de Gorze, en Lorraine, est mentionnée comme « leprosis in Gorziensis villae potestate ».
+Première mention de la léproserie des Grands Malades, « le plus ancien hospice de Huy », en Wallonie.
+La maladrerie Saint-Nicolas de Gravigny, près d'Évreux, en Normandie, fondée au début du siècle, est attestée dans une charte par laquelle Simon de Montfort lui accorde un jour de foire,.
 1160-1161 :
-Une aumônerie Saint-Aubin est mentionnée à Angers[5].
-Fondation de la « Grande Maladrerie » de Beaulieu à Caen, en Normandie[6].
-Années 1160 : « premières mentions certaines de l'hôtel-Dieu de Caen », en Normandie[6].</t>
+Une aumônerie Saint-Aubin est mentionnée à Angers.
+Fondation de la « Grande Maladrerie » de Beaulieu à Caen, en Normandie.
+Années 1160 : « premières mentions certaines de l'hôtel-Dieu de Caen », en Normandie.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1160_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1160_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,12 +562,14 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entre 1153 et 1160 : Raoul de Longo Campo (mort à une date inconnue), maître régent ès arts, disciple d'Alain de Lille, auteur, entre autres œuvres, d'un « Regimentum sanitatis à sujet purement médical », et de « remarques d'ordre physiologique et thérapeutique dispersées dans le commentaire sur l'Anticlaudianus et dans les Distinctiones[7] ».
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 1153 et 1160 : Raoul de Longo Campo (mort à une date inconnue), maître régent ès arts, disciple d'Alain de Lille, auteur, entre autres œuvres, d'un « Regimentum sanitatis à sujet purement médical », et de « remarques d'ordre physiologique et thérapeutique dispersées dans le commentaire sur l'Anticlaudianus et dans les Distinctiones ».
 Vers 1160 :
-Guy de Montpellier (mort en 1208), fondateur de l'ordre des Hospitaliers du Saint-Esprit[8].
-Samuel ibn Tibbon (mort vers 1230), médecin, fils du médecin Juda ibn Tibbon, beau-père de Jacob ben Abba Mari, et auteur, parmi d'autres traductions, de celle de l'Ars parva de Galien avec le commentaire d'Ali ibn Rodhwân[9].
+Guy de Montpellier (mort en 1208), fondateur de l'ordre des Hospitaliers du Saint-Esprit.
+Samuel ibn Tibbon (mort vers 1230), médecin, fils du médecin Juda ibn Tibbon, beau-père de Jacob ben Abba Mari, et auteur, parmi d'autres traductions, de celle de l'Ars parva de Galien avec le commentaire d'Ali ibn Rodhwân.
 </t>
         </is>
       </c>
